--- a/num_atomos/crn64.xlsx
+++ b/num_atomos/crn64.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>CRN</t>
   </si>
@@ -116,21 +116,6 @@
   </si>
   <si>
     <t>crn_00024</t>
-  </si>
-  <si>
-    <t>crn_00025</t>
-  </si>
-  <si>
-    <t>crn_00026</t>
-  </si>
-  <si>
-    <t>crn_00027</t>
-  </si>
-  <si>
-    <t>crn_00028</t>
-  </si>
-  <si>
-    <t>crn_00029</t>
   </si>
 </sst>
 </file>
@@ -495,7 +480,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I31"/>
+  <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -535,28 +520,28 @@
         <v>9</v>
       </c>
       <c r="B2" s="2">
-        <v>442.68715</v>
+        <v>437.435613</v>
       </c>
       <c r="C2" s="2">
-        <v>263.311883</v>
+        <v>199.69691</v>
       </c>
       <c r="D2" s="2">
-        <v>-0.229566</v>
+        <v>0.048736</v>
       </c>
       <c r="E2" s="2">
-        <v>1.532343</v>
+        <v>3.752773</v>
       </c>
       <c r="F2" s="2">
-        <v>53.125</v>
+        <v>50</v>
       </c>
       <c r="G2" s="2">
         <v>1</v>
       </c>
       <c r="H2" s="2">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I2" s="2">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -564,28 +549,28 @@
         <v>10</v>
       </c>
       <c r="B3" s="2">
-        <v>450.072</v>
+        <v>439.322651</v>
       </c>
       <c r="C3" s="2">
-        <v>251.761271</v>
+        <v>245.779199</v>
       </c>
       <c r="D3" s="2">
-        <v>-0.902316</v>
+        <v>-0.871437</v>
       </c>
       <c r="E3" s="2">
-        <v>1.267095</v>
+        <v>0.278363</v>
       </c>
       <c r="F3" s="2">
-        <v>46.875</v>
+        <v>50</v>
       </c>
       <c r="G3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3" s="2">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I3" s="2">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -593,28 +578,28 @@
         <v>11</v>
       </c>
       <c r="B4" s="2">
-        <v>442.306338</v>
+        <v>425.836083</v>
       </c>
       <c r="C4" s="2">
-        <v>267.6716</v>
+        <v>273.494475</v>
       </c>
       <c r="D4" s="2">
-        <v>0.345892</v>
+        <v>-0.226062</v>
       </c>
       <c r="E4" s="2">
-        <v>3.707876</v>
+        <v>1.401595</v>
       </c>
       <c r="F4" s="2">
-        <v>50</v>
+        <v>46.875</v>
       </c>
       <c r="G4" s="2">
         <v>0</v>
       </c>
       <c r="H4" s="2">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I4" s="2">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -622,28 +607,28 @@
         <v>12</v>
       </c>
       <c r="B5" s="2">
-        <v>448.066972</v>
+        <v>420.290737</v>
       </c>
       <c r="C5" s="2">
-        <v>244.023947</v>
+        <v>231.013876</v>
       </c>
       <c r="D5" s="2">
-        <v>1.897966</v>
+        <v>-1.164374</v>
       </c>
       <c r="E5" s="2">
-        <v>14.968684</v>
+        <v>0.674082</v>
       </c>
       <c r="F5" s="2">
         <v>50</v>
       </c>
       <c r="G5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5" s="2">
         <v>32</v>
       </c>
       <c r="I5" s="2">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -651,28 +636,28 @@
         <v>13</v>
       </c>
       <c r="B6" s="2">
-        <v>441.912689</v>
+        <v>417.268122</v>
       </c>
       <c r="C6" s="2">
-        <v>287.512794</v>
+        <v>283.137019</v>
       </c>
       <c r="D6" s="2">
-        <v>0.424504</v>
+        <v>0.51762</v>
       </c>
       <c r="E6" s="2">
-        <v>7.437825</v>
+        <v>6.655713</v>
       </c>
       <c r="F6" s="2">
-        <v>50</v>
+        <v>46.875</v>
       </c>
       <c r="G6" s="2">
         <v>0</v>
       </c>
       <c r="H6" s="2">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I6" s="2">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -680,28 +665,28 @@
         <v>14</v>
       </c>
       <c r="B7" s="2">
-        <v>454.549605</v>
+        <v>436.33015</v>
       </c>
       <c r="C7" s="2">
-        <v>178.094632</v>
+        <v>252.19026</v>
       </c>
       <c r="D7" s="2">
-        <v>0.091002</v>
+        <v>-0.54052</v>
       </c>
       <c r="E7" s="2">
-        <v>8.416869</v>
+        <v>1.850417</v>
       </c>
       <c r="F7" s="2">
-        <v>50</v>
+        <v>53.125</v>
       </c>
       <c r="G7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H7" s="2">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="I7" s="2">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -709,28 +694,28 @@
         <v>15</v>
       </c>
       <c r="B8" s="2">
-        <v>432.390948</v>
+        <v>439.253306</v>
       </c>
       <c r="C8" s="2">
-        <v>286.032784</v>
+        <v>251.489009</v>
       </c>
       <c r="D8" s="2">
-        <v>0.331756</v>
+        <v>-1.123946</v>
       </c>
       <c r="E8" s="2">
-        <v>2.706693</v>
+        <v>3.56025</v>
       </c>
       <c r="F8" s="2">
-        <v>46.875</v>
+        <v>53.125</v>
       </c>
       <c r="G8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8" s="2">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="I8" s="2">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -738,16 +723,16 @@
         <v>16</v>
       </c>
       <c r="B9" s="2">
-        <v>503.785067</v>
+        <v>430.745201</v>
       </c>
       <c r="C9" s="2">
-        <v>219.876812</v>
+        <v>213.574831</v>
       </c>
       <c r="D9" s="2">
-        <v>0.656955</v>
+        <v>0.271011</v>
       </c>
       <c r="E9" s="2">
-        <v>5.925163</v>
+        <v>3.953429</v>
       </c>
       <c r="F9" s="2">
         <v>50</v>
@@ -767,16 +752,16 @@
         <v>17</v>
       </c>
       <c r="B10" s="2">
-        <v>446.190518</v>
+        <v>410.238656</v>
       </c>
       <c r="C10" s="2">
-        <v>256.548115</v>
+        <v>300.040962</v>
       </c>
       <c r="D10" s="2">
-        <v>-0.906701</v>
+        <v>0.061501</v>
       </c>
       <c r="E10" s="2">
-        <v>0.09164</v>
+        <v>3.410122</v>
       </c>
       <c r="F10" s="2">
         <v>50</v>
@@ -796,28 +781,28 @@
         <v>18</v>
       </c>
       <c r="B11" s="2">
-        <v>448.154283</v>
+        <v>435.157637</v>
       </c>
       <c r="C11" s="2">
-        <v>287.77118</v>
+        <v>258.688421</v>
       </c>
       <c r="D11" s="2">
-        <v>1.215719</v>
+        <v>-0.822244</v>
       </c>
       <c r="E11" s="2">
-        <v>8.306549</v>
+        <v>3.270273</v>
       </c>
       <c r="F11" s="2">
-        <v>50</v>
+        <v>46.875</v>
       </c>
       <c r="G11" s="2">
         <v>0</v>
       </c>
       <c r="H11" s="2">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I11" s="2">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -825,28 +810,28 @@
         <v>19</v>
       </c>
       <c r="B12" s="2">
-        <v>443.815714</v>
+        <v>442.729496</v>
       </c>
       <c r="C12" s="2">
-        <v>260.066172</v>
+        <v>263.469466</v>
       </c>
       <c r="D12" s="2">
-        <v>-0.742557</v>
+        <v>-1.052725</v>
       </c>
       <c r="E12" s="2">
-        <v>1.638559</v>
+        <v>1.894947</v>
       </c>
       <c r="F12" s="2">
-        <v>50</v>
+        <v>46.875</v>
       </c>
       <c r="G12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H12" s="2">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I12" s="2">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -854,28 +839,28 @@
         <v>20</v>
       </c>
       <c r="B13" s="2">
-        <v>439.894157</v>
+        <v>417.552969</v>
       </c>
       <c r="C13" s="2">
-        <v>255.686148</v>
+        <v>273.229674</v>
       </c>
       <c r="D13" s="2">
-        <v>-0.362218</v>
+        <v>-0.504094</v>
       </c>
       <c r="E13" s="2">
-        <v>1.58459</v>
+        <v>0.95021</v>
       </c>
       <c r="F13" s="2">
-        <v>50</v>
+        <v>37.5</v>
       </c>
       <c r="G13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H13" s="2">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="I13" s="2">
-        <v>31</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -883,16 +868,16 @@
         <v>21</v>
       </c>
       <c r="B14" s="2">
-        <v>444.425002</v>
+        <v>429.975678</v>
       </c>
       <c r="C14" s="2">
-        <v>257.360816</v>
+        <v>262.793661</v>
       </c>
       <c r="D14" s="2">
-        <v>0.6500860000000001</v>
+        <v>0.049491</v>
       </c>
       <c r="E14" s="2">
-        <v>4.275032</v>
+        <v>1.928833</v>
       </c>
       <c r="F14" s="2">
         <v>50</v>
@@ -912,28 +897,28 @@
         <v>22</v>
       </c>
       <c r="B15" s="2">
-        <v>426.516513</v>
+        <v>475.922217</v>
       </c>
       <c r="C15" s="2">
-        <v>252.693733</v>
+        <v>241.699599</v>
       </c>
       <c r="D15" s="2">
-        <v>-0.299988</v>
+        <v>-0.830651</v>
       </c>
       <c r="E15" s="2">
-        <v>2.098593</v>
+        <v>1.361503</v>
       </c>
       <c r="F15" s="2">
-        <v>46.875</v>
+        <v>56.25</v>
       </c>
       <c r="G15" s="2">
         <v>1</v>
       </c>
       <c r="H15" s="2">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="I15" s="2">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -941,28 +926,28 @@
         <v>23</v>
       </c>
       <c r="B16" s="2">
-        <v>460.323894</v>
+        <v>417.586489</v>
       </c>
       <c r="C16" s="2">
-        <v>249.973557</v>
+        <v>295.863162</v>
       </c>
       <c r="D16" s="2">
-        <v>0.486788</v>
+        <v>0.127488</v>
       </c>
       <c r="E16" s="2">
-        <v>3.550899</v>
+        <v>3.029304</v>
       </c>
       <c r="F16" s="2">
-        <v>50</v>
+        <v>46.875</v>
       </c>
       <c r="G16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16" s="2">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I16" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -970,28 +955,28 @@
         <v>24</v>
       </c>
       <c r="B17" s="2">
-        <v>445.013863</v>
+        <v>449.314289</v>
       </c>
       <c r="C17" s="2">
-        <v>249.4343</v>
+        <v>251.038639</v>
       </c>
       <c r="D17" s="2">
-        <v>0.493397</v>
+        <v>-0.7132270000000001</v>
       </c>
       <c r="E17" s="2">
-        <v>4.756258</v>
+        <v>2.291935</v>
       </c>
       <c r="F17" s="2">
-        <v>53.125</v>
+        <v>62.5</v>
       </c>
       <c r="G17" s="2">
         <v>1</v>
       </c>
       <c r="H17" s="2">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="I17" s="2">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -999,28 +984,28 @@
         <v>25</v>
       </c>
       <c r="B18" s="2">
-        <v>453.288364</v>
+        <v>433.419991</v>
       </c>
       <c r="C18" s="2">
-        <v>240.566362</v>
+        <v>243.900948</v>
       </c>
       <c r="D18" s="2">
-        <v>-0.912735</v>
+        <v>0.262595</v>
       </c>
       <c r="E18" s="2">
-        <v>2.402865</v>
+        <v>1.564498</v>
       </c>
       <c r="F18" s="2">
-        <v>46.875</v>
+        <v>56.25</v>
       </c>
       <c r="G18" s="2">
         <v>1</v>
       </c>
       <c r="H18" s="2">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="I18" s="2">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -1028,28 +1013,28 @@
         <v>26</v>
       </c>
       <c r="B19" s="2">
-        <v>453.402556</v>
+        <v>452.029989</v>
       </c>
       <c r="C19" s="2">
-        <v>246.388265</v>
+        <v>240.50265</v>
       </c>
       <c r="D19" s="2">
-        <v>-0.376726</v>
+        <v>-0.585126</v>
       </c>
       <c r="E19" s="2">
-        <v>4.618164</v>
+        <v>2.411265</v>
       </c>
       <c r="F19" s="2">
-        <v>53.125</v>
+        <v>50</v>
       </c>
       <c r="G19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H19" s="2">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I19" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -1057,28 +1042,28 @@
         <v>27</v>
       </c>
       <c r="B20" s="2">
-        <v>470.641712</v>
+        <v>442.851493</v>
       </c>
       <c r="C20" s="2">
-        <v>218.861493</v>
+        <v>234.287951</v>
       </c>
       <c r="D20" s="2">
-        <v>0.051665</v>
+        <v>0.36854</v>
       </c>
       <c r="E20" s="2">
-        <v>4.000264</v>
+        <v>3.699225</v>
       </c>
       <c r="F20" s="2">
         <v>46.875</v>
       </c>
       <c r="G20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H20" s="2">
         <v>30</v>
       </c>
       <c r="I20" s="2">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -1086,28 +1071,28 @@
         <v>28</v>
       </c>
       <c r="B21" s="2">
-        <v>430.272434</v>
+        <v>439.947083</v>
       </c>
       <c r="C21" s="2">
-        <v>313.237518</v>
+        <v>266.402591</v>
       </c>
       <c r="D21" s="2">
-        <v>1.032292</v>
+        <v>0.069399</v>
       </c>
       <c r="E21" s="2">
-        <v>5.436095</v>
+        <v>2.864446</v>
       </c>
       <c r="F21" s="2">
-        <v>50</v>
+        <v>46.875</v>
       </c>
       <c r="G21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H21" s="2">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I21" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1115,28 +1100,28 @@
         <v>29</v>
       </c>
       <c r="B22" s="2">
-        <v>442.110268</v>
+        <v>420.795921</v>
       </c>
       <c r="C22" s="2">
-        <v>269.831677</v>
+        <v>248.201786</v>
       </c>
       <c r="D22" s="2">
-        <v>0.440089</v>
+        <v>0.050943</v>
       </c>
       <c r="E22" s="2">
-        <v>3.933514</v>
+        <v>3.516213</v>
       </c>
       <c r="F22" s="2">
-        <v>46.875</v>
+        <v>50</v>
       </c>
       <c r="G22" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H22" s="2">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I22" s="2">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1144,28 +1129,28 @@
         <v>30</v>
       </c>
       <c r="B23" s="2">
-        <v>450.875365</v>
+        <v>439.305314</v>
       </c>
       <c r="C23" s="2">
-        <v>232.917487</v>
+        <v>224.024904</v>
       </c>
       <c r="D23" s="2">
-        <v>0.169344</v>
+        <v>0.337218</v>
       </c>
       <c r="E23" s="2">
-        <v>2.119839</v>
+        <v>4.947861</v>
       </c>
       <c r="F23" s="2">
-        <v>53.125</v>
+        <v>46.875</v>
       </c>
       <c r="G23" s="2">
         <v>1</v>
       </c>
       <c r="H23" s="2">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="I23" s="2">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1173,16 +1158,16 @@
         <v>31</v>
       </c>
       <c r="B24" s="2">
-        <v>449.140258</v>
+        <v>438.820066</v>
       </c>
       <c r="C24" s="2">
-        <v>266.737812</v>
+        <v>240.491243</v>
       </c>
       <c r="D24" s="2">
-        <v>0.6799269999999999</v>
+        <v>-1.325899</v>
       </c>
       <c r="E24" s="2">
-        <v>5.66663</v>
+        <v>-0.793198</v>
       </c>
       <c r="F24" s="2">
         <v>53.125</v>
@@ -1202,28 +1187,28 @@
         <v>32</v>
       </c>
       <c r="B25" s="2">
-        <v>458.835117</v>
+        <v>439.097307</v>
       </c>
       <c r="C25" s="2">
-        <v>240.865547</v>
+        <v>257.449744</v>
       </c>
       <c r="D25" s="2">
-        <v>0.333565</v>
+        <v>0.17731</v>
       </c>
       <c r="E25" s="2">
-        <v>3.201461</v>
+        <v>3.508086</v>
       </c>
       <c r="F25" s="2">
         <v>53.125</v>
       </c>
       <c r="G25" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H25" s="2">
         <v>34</v>
       </c>
       <c r="I25" s="2">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1231,173 +1216,28 @@
         <v>33</v>
       </c>
       <c r="B26" s="2">
-        <v>456.766583</v>
+        <v>446.819861</v>
       </c>
       <c r="C26" s="2">
-        <v>268.23482</v>
+        <v>289.442816</v>
       </c>
       <c r="D26" s="2">
-        <v>0.205194</v>
+        <v>0.868833</v>
       </c>
       <c r="E26" s="2">
-        <v>2.059694</v>
+        <v>9.09127</v>
       </c>
       <c r="F26" s="2">
-        <v>50</v>
+        <v>46.875</v>
       </c>
       <c r="G26" s="2">
         <v>1</v>
       </c>
       <c r="H26" s="2">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I26" s="2">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
-      <c r="A27" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B27" s="2">
-        <v>442.506995</v>
-      </c>
-      <c r="C27" s="2">
-        <v>201.891834</v>
-      </c>
-      <c r="D27" s="2">
-        <v>0.368659</v>
-      </c>
-      <c r="E27" s="2">
-        <v>3.311409</v>
-      </c>
-      <c r="F27" s="2">
-        <v>53.125</v>
-      </c>
-      <c r="G27" s="2">
-        <v>1</v>
-      </c>
-      <c r="H27" s="2">
-        <v>34</v>
-      </c>
-      <c r="I27" s="2">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
-      <c r="A28" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B28" s="2">
-        <v>468.566774</v>
-      </c>
-      <c r="C28" s="2">
-        <v>208.680762</v>
-      </c>
-      <c r="D28" s="2">
-        <v>0.394282</v>
-      </c>
-      <c r="E28" s="2">
-        <v>2.694599</v>
-      </c>
-      <c r="F28" s="2">
-        <v>46.875</v>
-      </c>
-      <c r="G28" s="2">
-        <v>1</v>
-      </c>
-      <c r="H28" s="2">
-        <v>30</v>
-      </c>
-      <c r="I28" s="2">
         <v>33</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
-      <c r="A29" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B29" s="2">
-        <v>435.972483</v>
-      </c>
-      <c r="C29" s="2">
-        <v>301.934462</v>
-      </c>
-      <c r="D29" s="2">
-        <v>0.215103</v>
-      </c>
-      <c r="E29" s="2">
-        <v>4.534403</v>
-      </c>
-      <c r="F29" s="2">
-        <v>46.875</v>
-      </c>
-      <c r="G29" s="2">
-        <v>0</v>
-      </c>
-      <c r="H29" s="2">
-        <v>30</v>
-      </c>
-      <c r="I29" s="2">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
-      <c r="A30" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B30" s="2">
-        <v>453.229594</v>
-      </c>
-      <c r="C30" s="2">
-        <v>261.548328</v>
-      </c>
-      <c r="D30" s="2">
-        <v>-2.457723</v>
-      </c>
-      <c r="E30" s="2">
-        <v>-0.654362</v>
-      </c>
-      <c r="F30" s="2">
-        <v>46.875</v>
-      </c>
-      <c r="G30" s="2">
-        <v>0</v>
-      </c>
-      <c r="H30" s="2">
-        <v>30</v>
-      </c>
-      <c r="I30" s="2">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
-      <c r="A31" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B31" s="2">
-        <v>450.067067</v>
-      </c>
-      <c r="C31" s="2">
-        <v>258.643264</v>
-      </c>
-      <c r="D31" s="2">
-        <v>-0.461244</v>
-      </c>
-      <c r="E31" s="2">
-        <v>2.000604</v>
-      </c>
-      <c r="F31" s="2">
-        <v>50</v>
-      </c>
-      <c r="G31" s="2">
-        <v>0</v>
-      </c>
-      <c r="H31" s="2">
-        <v>32</v>
-      </c>
-      <c r="I31" s="2">
-        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/num_atomos/crn64.xlsx
+++ b/num_atomos/crn64.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>CRN</t>
   </si>
@@ -116,6 +116,21 @@
   </si>
   <si>
     <t>crn_00024</t>
+  </si>
+  <si>
+    <t>crn_00025</t>
+  </si>
+  <si>
+    <t>crn_00026</t>
+  </si>
+  <si>
+    <t>crn_00027</t>
+  </si>
+  <si>
+    <t>crn_00028</t>
+  </si>
+  <si>
+    <t>crn_00029</t>
   </si>
 </sst>
 </file>
@@ -480,7 +495,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I26"/>
+  <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -520,28 +535,28 @@
         <v>9</v>
       </c>
       <c r="B2" s="2">
-        <v>437.435613</v>
+        <v>444.03778</v>
       </c>
       <c r="C2" s="2">
-        <v>199.69691</v>
+        <v>255.571023</v>
       </c>
       <c r="D2" s="2">
-        <v>0.048736</v>
+        <v>-1.385659</v>
       </c>
       <c r="E2" s="2">
-        <v>3.752773</v>
+        <v>0.12863</v>
       </c>
       <c r="F2" s="2">
         <v>50</v>
       </c>
       <c r="G2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H2" s="2">
         <v>32</v>
       </c>
       <c r="I2" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -549,28 +564,28 @@
         <v>10</v>
       </c>
       <c r="B3" s="2">
-        <v>439.322651</v>
+        <v>433.712141</v>
       </c>
       <c r="C3" s="2">
-        <v>245.779199</v>
+        <v>291.934974</v>
       </c>
       <c r="D3" s="2">
-        <v>-0.871437</v>
+        <v>-0.639174</v>
       </c>
       <c r="E3" s="2">
-        <v>0.278363</v>
+        <v>2.785506</v>
       </c>
       <c r="F3" s="2">
-        <v>50</v>
+        <v>46.875</v>
       </c>
       <c r="G3" s="2">
         <v>1</v>
       </c>
       <c r="H3" s="2">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I3" s="2">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -578,28 +593,28 @@
         <v>11</v>
       </c>
       <c r="B4" s="2">
-        <v>425.836083</v>
+        <v>444.299746</v>
       </c>
       <c r="C4" s="2">
-        <v>273.494475</v>
+        <v>236.53724</v>
       </c>
       <c r="D4" s="2">
-        <v>-0.226062</v>
+        <v>-0.281313</v>
       </c>
       <c r="E4" s="2">
-        <v>1.401595</v>
+        <v>1.907186</v>
       </c>
       <c r="F4" s="2">
         <v>46.875</v>
       </c>
       <c r="G4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4" s="2">
         <v>30</v>
       </c>
       <c r="I4" s="2">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -607,28 +622,28 @@
         <v>12</v>
       </c>
       <c r="B5" s="2">
-        <v>420.290737</v>
+        <v>438.854715</v>
       </c>
       <c r="C5" s="2">
-        <v>231.013876</v>
+        <v>232.681332</v>
       </c>
       <c r="D5" s="2">
-        <v>-1.164374</v>
+        <v>2.513104</v>
       </c>
       <c r="E5" s="2">
-        <v>0.674082</v>
+        <v>19.02429</v>
       </c>
       <c r="F5" s="2">
-        <v>50</v>
+        <v>46.875</v>
       </c>
       <c r="G5" s="2">
         <v>1</v>
       </c>
       <c r="H5" s="2">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I5" s="2">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -636,28 +651,28 @@
         <v>13</v>
       </c>
       <c r="B6" s="2">
-        <v>417.268122</v>
+        <v>437.487478</v>
       </c>
       <c r="C6" s="2">
-        <v>283.137019</v>
+        <v>288.135225</v>
       </c>
       <c r="D6" s="2">
-        <v>0.51762</v>
+        <v>-1.259726</v>
       </c>
       <c r="E6" s="2">
-        <v>6.655713</v>
+        <v>2.489577</v>
       </c>
       <c r="F6" s="2">
         <v>46.875</v>
       </c>
       <c r="G6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6" s="2">
         <v>30</v>
       </c>
       <c r="I6" s="2">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -665,28 +680,28 @@
         <v>14</v>
       </c>
       <c r="B7" s="2">
-        <v>436.33015</v>
+        <v>436.123083</v>
       </c>
       <c r="C7" s="2">
-        <v>252.19026</v>
+        <v>237.631998</v>
       </c>
       <c r="D7" s="2">
-        <v>-0.54052</v>
+        <v>-0.701175</v>
       </c>
       <c r="E7" s="2">
-        <v>1.850417</v>
+        <v>4.229863</v>
       </c>
       <c r="F7" s="2">
-        <v>53.125</v>
+        <v>50</v>
       </c>
       <c r="G7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7" s="2">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I7" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -694,28 +709,28 @@
         <v>15</v>
       </c>
       <c r="B8" s="2">
-        <v>439.253306</v>
+        <v>436.589075</v>
       </c>
       <c r="C8" s="2">
-        <v>251.489009</v>
+        <v>266.175303</v>
       </c>
       <c r="D8" s="2">
-        <v>-1.123946</v>
+        <v>0.346213</v>
       </c>
       <c r="E8" s="2">
-        <v>3.56025</v>
+        <v>4.721248</v>
       </c>
       <c r="F8" s="2">
-        <v>53.125</v>
+        <v>46.875</v>
       </c>
       <c r="G8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H8" s="2">
+        <v>30</v>
+      </c>
+      <c r="I8" s="2">
         <v>34</v>
-      </c>
-      <c r="I8" s="2">
-        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -723,28 +738,28 @@
         <v>16</v>
       </c>
       <c r="B9" s="2">
-        <v>430.745201</v>
+        <v>464.440069</v>
       </c>
       <c r="C9" s="2">
-        <v>213.574831</v>
+        <v>244.827381</v>
       </c>
       <c r="D9" s="2">
-        <v>0.271011</v>
+        <v>-0.305409</v>
       </c>
       <c r="E9" s="2">
-        <v>3.953429</v>
+        <v>2.614112</v>
       </c>
       <c r="F9" s="2">
-        <v>50</v>
+        <v>46.875</v>
       </c>
       <c r="G9" s="2">
         <v>1</v>
       </c>
       <c r="H9" s="2">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I9" s="2">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -752,28 +767,28 @@
         <v>17</v>
       </c>
       <c r="B10" s="2">
-        <v>410.238656</v>
+        <v>443.147867</v>
       </c>
       <c r="C10" s="2">
-        <v>300.040962</v>
+        <v>241.860944</v>
       </c>
       <c r="D10" s="2">
-        <v>0.061501</v>
+        <v>-0.950894</v>
       </c>
       <c r="E10" s="2">
-        <v>3.410122</v>
+        <v>0.948705</v>
       </c>
       <c r="F10" s="2">
-        <v>50</v>
+        <v>46.875</v>
       </c>
       <c r="G10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10" s="2">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I10" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -781,16 +796,16 @@
         <v>18</v>
       </c>
       <c r="B11" s="2">
-        <v>435.157637</v>
+        <v>431.344354</v>
       </c>
       <c r="C11" s="2">
-        <v>258.688421</v>
+        <v>246.555231</v>
       </c>
       <c r="D11" s="2">
-        <v>-0.822244</v>
+        <v>0.137237</v>
       </c>
       <c r="E11" s="2">
-        <v>3.270273</v>
+        <v>3.008565</v>
       </c>
       <c r="F11" s="2">
         <v>46.875</v>
@@ -810,28 +825,28 @@
         <v>19</v>
       </c>
       <c r="B12" s="2">
-        <v>442.729496</v>
+        <v>435.123183</v>
       </c>
       <c r="C12" s="2">
-        <v>263.469466</v>
+        <v>231.730715</v>
       </c>
       <c r="D12" s="2">
-        <v>-1.052725</v>
+        <v>0.703753</v>
       </c>
       <c r="E12" s="2">
-        <v>1.894947</v>
+        <v>3.837027</v>
       </c>
       <c r="F12" s="2">
-        <v>46.875</v>
+        <v>50</v>
       </c>
       <c r="G12" s="2">
         <v>0</v>
       </c>
       <c r="H12" s="2">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I12" s="2">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -839,28 +854,28 @@
         <v>20</v>
       </c>
       <c r="B13" s="2">
-        <v>417.552969</v>
+        <v>468.192422</v>
       </c>
       <c r="C13" s="2">
-        <v>273.229674</v>
+        <v>203.046293</v>
       </c>
       <c r="D13" s="2">
-        <v>-0.504094</v>
+        <v>0.598958</v>
       </c>
       <c r="E13" s="2">
-        <v>0.95021</v>
+        <v>2.809231</v>
       </c>
       <c r="F13" s="2">
-        <v>37.5</v>
+        <v>53.125</v>
       </c>
       <c r="G13" s="2">
         <v>0</v>
       </c>
       <c r="H13" s="2">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="I13" s="2">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -868,28 +883,28 @@
         <v>21</v>
       </c>
       <c r="B14" s="2">
-        <v>429.975678</v>
+        <v>408.617598</v>
       </c>
       <c r="C14" s="2">
-        <v>262.793661</v>
+        <v>245.175361</v>
       </c>
       <c r="D14" s="2">
-        <v>0.049491</v>
+        <v>-0.75159</v>
       </c>
       <c r="E14" s="2">
-        <v>1.928833</v>
+        <v>2.282665</v>
       </c>
       <c r="F14" s="2">
-        <v>50</v>
+        <v>53.125</v>
       </c>
       <c r="G14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14" s="2">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="I14" s="2">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -897,28 +912,28 @@
         <v>22</v>
       </c>
       <c r="B15" s="2">
-        <v>475.922217</v>
+        <v>433.729331</v>
       </c>
       <c r="C15" s="2">
-        <v>241.699599</v>
+        <v>246.581486</v>
       </c>
       <c r="D15" s="2">
-        <v>-0.830651</v>
+        <v>0.04456</v>
       </c>
       <c r="E15" s="2">
-        <v>1.361503</v>
+        <v>4.132562</v>
       </c>
       <c r="F15" s="2">
-        <v>56.25</v>
+        <v>46.875</v>
       </c>
       <c r="G15" s="2">
         <v>1</v>
       </c>
       <c r="H15" s="2">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="I15" s="2">
-        <v>27</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -926,28 +941,28 @@
         <v>23</v>
       </c>
       <c r="B16" s="2">
-        <v>417.586489</v>
+        <v>423.564751</v>
       </c>
       <c r="C16" s="2">
-        <v>295.863162</v>
+        <v>290.307411</v>
       </c>
       <c r="D16" s="2">
-        <v>0.127488</v>
+        <v>0.205954</v>
       </c>
       <c r="E16" s="2">
-        <v>3.029304</v>
+        <v>5.051874</v>
       </c>
       <c r="F16" s="2">
-        <v>46.875</v>
+        <v>50</v>
       </c>
       <c r="G16" s="2">
         <v>1</v>
       </c>
       <c r="H16" s="2">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I16" s="2">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -955,28 +970,28 @@
         <v>24</v>
       </c>
       <c r="B17" s="2">
-        <v>449.314289</v>
+        <v>429.975678</v>
       </c>
       <c r="C17" s="2">
-        <v>251.038639</v>
+        <v>257.803029</v>
       </c>
       <c r="D17" s="2">
-        <v>-0.7132270000000001</v>
+        <v>-0.508456</v>
       </c>
       <c r="E17" s="2">
-        <v>2.291935</v>
+        <v>1.116876</v>
       </c>
       <c r="F17" s="2">
-        <v>62.5</v>
+        <v>50</v>
       </c>
       <c r="G17" s="2">
         <v>1</v>
       </c>
       <c r="H17" s="2">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="I17" s="2">
-        <v>23</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -984,28 +999,28 @@
         <v>25</v>
       </c>
       <c r="B18" s="2">
-        <v>433.419991</v>
+        <v>436.986294</v>
       </c>
       <c r="C18" s="2">
-        <v>243.900948</v>
+        <v>271.552346</v>
       </c>
       <c r="D18" s="2">
-        <v>0.262595</v>
+        <v>0.283232</v>
       </c>
       <c r="E18" s="2">
-        <v>1.564498</v>
+        <v>4.043613</v>
       </c>
       <c r="F18" s="2">
-        <v>56.25</v>
+        <v>50</v>
       </c>
       <c r="G18" s="2">
         <v>1</v>
       </c>
       <c r="H18" s="2">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I18" s="2">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -1013,16 +1028,16 @@
         <v>26</v>
       </c>
       <c r="B19" s="2">
-        <v>452.029989</v>
+        <v>420.981257</v>
       </c>
       <c r="C19" s="2">
-        <v>240.50265</v>
+        <v>274.686059</v>
       </c>
       <c r="D19" s="2">
-        <v>-0.585126</v>
+        <v>-1.327174</v>
       </c>
       <c r="E19" s="2">
-        <v>2.411265</v>
+        <v>-0.942836</v>
       </c>
       <c r="F19" s="2">
         <v>50</v>
@@ -1042,28 +1057,28 @@
         <v>27</v>
       </c>
       <c r="B20" s="2">
-        <v>442.851493</v>
+        <v>445.751152</v>
       </c>
       <c r="C20" s="2">
-        <v>234.287951</v>
+        <v>249.564427</v>
       </c>
       <c r="D20" s="2">
-        <v>0.36854</v>
+        <v>1.837633</v>
       </c>
       <c r="E20" s="2">
-        <v>3.699225</v>
+        <v>11.44626</v>
       </c>
       <c r="F20" s="2">
-        <v>46.875</v>
+        <v>50</v>
       </c>
       <c r="G20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H20" s="2">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I20" s="2">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -1071,28 +1086,28 @@
         <v>28</v>
       </c>
       <c r="B21" s="2">
-        <v>439.947083</v>
+        <v>431.464251</v>
       </c>
       <c r="C21" s="2">
-        <v>266.402591</v>
+        <v>249.325769</v>
       </c>
       <c r="D21" s="2">
-        <v>0.069399</v>
+        <v>-0.839351</v>
       </c>
       <c r="E21" s="2">
-        <v>2.864446</v>
+        <v>2.392735</v>
       </c>
       <c r="F21" s="2">
-        <v>46.875</v>
+        <v>53.125</v>
       </c>
       <c r="G21" s="2">
         <v>1</v>
       </c>
       <c r="H21" s="2">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="I21" s="2">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1100,28 +1115,28 @@
         <v>29</v>
       </c>
       <c r="B22" s="2">
-        <v>420.795921</v>
+        <v>448.065918</v>
       </c>
       <c r="C22" s="2">
-        <v>248.201786</v>
+        <v>268.772782</v>
       </c>
       <c r="D22" s="2">
-        <v>0.050943</v>
+        <v>1.058055</v>
       </c>
       <c r="E22" s="2">
-        <v>3.516213</v>
+        <v>7.35721</v>
       </c>
       <c r="F22" s="2">
-        <v>50</v>
+        <v>46.875</v>
       </c>
       <c r="G22" s="2">
         <v>1</v>
       </c>
       <c r="H22" s="2">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I22" s="2">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1129,28 +1144,28 @@
         <v>30</v>
       </c>
       <c r="B23" s="2">
-        <v>439.305314</v>
+        <v>431.858355</v>
       </c>
       <c r="C23" s="2">
-        <v>224.024904</v>
+        <v>251.761421</v>
       </c>
       <c r="D23" s="2">
-        <v>0.337218</v>
+        <v>-0.400146</v>
       </c>
       <c r="E23" s="2">
-        <v>4.947861</v>
+        <v>3.743755</v>
       </c>
       <c r="F23" s="2">
-        <v>46.875</v>
+        <v>53.125</v>
       </c>
       <c r="G23" s="2">
         <v>1</v>
       </c>
       <c r="H23" s="2">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="I23" s="2">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1158,28 +1173,28 @@
         <v>31</v>
       </c>
       <c r="B24" s="2">
-        <v>438.820066</v>
+        <v>435.054281</v>
       </c>
       <c r="C24" s="2">
-        <v>240.491243</v>
+        <v>285.61565</v>
       </c>
       <c r="D24" s="2">
-        <v>-1.325899</v>
+        <v>0.5758450000000001</v>
       </c>
       <c r="E24" s="2">
-        <v>-0.793198</v>
+        <v>4.082143</v>
       </c>
       <c r="F24" s="2">
-        <v>53.125</v>
+        <v>46.875</v>
       </c>
       <c r="G24" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H24" s="2">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="I24" s="2">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1187,28 +1202,28 @@
         <v>32</v>
       </c>
       <c r="B25" s="2">
-        <v>439.097307</v>
+        <v>432.287002</v>
       </c>
       <c r="C25" s="2">
-        <v>257.449744</v>
+        <v>234.665684</v>
       </c>
       <c r="D25" s="2">
-        <v>0.17731</v>
+        <v>1.43741</v>
       </c>
       <c r="E25" s="2">
-        <v>3.508086</v>
+        <v>4.910842</v>
       </c>
       <c r="F25" s="2">
-        <v>53.125</v>
+        <v>46.875</v>
       </c>
       <c r="G25" s="2">
         <v>1</v>
       </c>
       <c r="H25" s="2">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="I25" s="2">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1216,28 +1231,173 @@
         <v>33</v>
       </c>
       <c r="B26" s="2">
-        <v>446.819861</v>
+        <v>435.657422</v>
       </c>
       <c r="C26" s="2">
-        <v>289.442816</v>
+        <v>270.027727</v>
       </c>
       <c r="D26" s="2">
-        <v>0.868833</v>
+        <v>0.305117</v>
       </c>
       <c r="E26" s="2">
-        <v>9.09127</v>
+        <v>14.644</v>
       </c>
       <c r="F26" s="2">
+        <v>53.125</v>
+      </c>
+      <c r="G26" s="2">
+        <v>0</v>
+      </c>
+      <c r="H26" s="2">
+        <v>34</v>
+      </c>
+      <c r="I26" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B27" s="2">
+        <v>436.485493</v>
+      </c>
+      <c r="C27" s="2">
+        <v>273.333769</v>
+      </c>
+      <c r="D27" s="2">
+        <v>0.673169</v>
+      </c>
+      <c r="E27" s="2">
+        <v>5.818353</v>
+      </c>
+      <c r="F27" s="2">
+        <v>50</v>
+      </c>
+      <c r="G27" s="2">
+        <v>0</v>
+      </c>
+      <c r="H27" s="2">
+        <v>32</v>
+      </c>
+      <c r="I27" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B28" s="2">
+        <v>436.520019</v>
+      </c>
+      <c r="C28" s="2">
+        <v>251.186596</v>
+      </c>
+      <c r="D28" s="2">
+        <v>0.778664</v>
+      </c>
+      <c r="E28" s="2">
+        <v>3.147818</v>
+      </c>
+      <c r="F28" s="2">
+        <v>53.125</v>
+      </c>
+      <c r="G28" s="2">
+        <v>0</v>
+      </c>
+      <c r="H28" s="2">
+        <v>34</v>
+      </c>
+      <c r="I28" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B29" s="2">
+        <v>437.885241</v>
+      </c>
+      <c r="C29" s="2">
+        <v>247.727518</v>
+      </c>
+      <c r="D29" s="2">
+        <v>0.528135</v>
+      </c>
+      <c r="E29" s="2">
+        <v>6.927249</v>
+      </c>
+      <c r="F29" s="2">
+        <v>50</v>
+      </c>
+      <c r="G29" s="2">
+        <v>1</v>
+      </c>
+      <c r="H29" s="2">
+        <v>32</v>
+      </c>
+      <c r="I29" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B30" s="2">
+        <v>443.374594</v>
+      </c>
+      <c r="C30" s="2">
+        <v>284.04816</v>
+      </c>
+      <c r="D30" s="2">
+        <v>0.124317</v>
+      </c>
+      <c r="E30" s="2">
+        <v>16.030135</v>
+      </c>
+      <c r="F30" s="2">
+        <v>50</v>
+      </c>
+      <c r="G30" s="2">
+        <v>0</v>
+      </c>
+      <c r="H30" s="2">
+        <v>32</v>
+      </c>
+      <c r="I30" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B31" s="2">
+        <v>453.126405</v>
+      </c>
+      <c r="C31" s="2">
+        <v>233.209148</v>
+      </c>
+      <c r="D31" s="2">
+        <v>-0.948704</v>
+      </c>
+      <c r="E31" s="2">
+        <v>1.171624</v>
+      </c>
+      <c r="F31" s="2">
         <v>46.875</v>
       </c>
-      <c r="G26" s="2">
-        <v>1</v>
-      </c>
-      <c r="H26" s="2">
-        <v>30</v>
-      </c>
-      <c r="I26" s="2">
-        <v>33</v>
+      <c r="G31" s="2">
+        <v>0</v>
+      </c>
+      <c r="H31" s="2">
+        <v>30</v>
+      </c>
+      <c r="I31" s="2">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
